--- a/해커톤/최종규격/냔지_최종규격.xlsx
+++ b/해커톤/최종규격/냔지_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\최종규격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D830C3F-E6AE-4138-9273-4459EA30E635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF9B4C-24CA-41CD-815C-B1FC2BBAD096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3450" windowWidth="48240" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,168 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>고닥교 친구들과 새해 맞이 음주🍺ㅣ카메라를 찾으러 차고지에..?ㅣ냔지 브이로그 🐭</t>
-  </si>
-  <si>
-    <t>내가 21살이라니😵 2019년의 끝자락, 고향 친구들과 대유잼 보장 VLOG 🎂</t>
-  </si>
-  <si>
-    <t>ENG)🎄친구들과 1박2일 크리스마스 홈 파티❤️ㅣ케이크 만들기, 쓸데없는 선물 교환식🎁ㅣ냔지 브이로그</t>
-  </si>
-  <si>
-    <t>ENG)🎁내가 나에게 주는 선물3ㅣ아이패드 에어 3세대🍏ㅣ냔지 언박싱</t>
-  </si>
-  <si>
-    <t>ENG)🦷치아 교정에 대한 모든 것 &amp; 솔직한 나의 후기!ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>☃️겨울맞이 톤다운 기념 GRWMㅣ︎피부 관리ㅣNEW 냔추템 가득✨ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>🧛🏻‍♀️스무살들의 이태원*홍대 할로윈 파티 VLOG💜ㅣ냔지 브이로그</t>
-  </si>
-  <si>
-    <t>📂스물 유튜버들의 한달 기록ㅣ갑자기 웬 교복..?ㅣ루디고 촬영ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>(ENG) 3박 4일 경주여행 브이로그 🌳ㅣ냠냠이에서 친구가 된 친구와 함께 💕✨</t>
-  </si>
-  <si>
-    <t>📂루디GO 첫 촬영 날 ღㅣ레드브라운 염색ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>🍁가을맞이 레드브라운 염색 후 같이 준비해요🍂ㅣGRWM 겟레디윗미ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>🥳두근두근 스무살 첫 생일선물 언박싱 🎂🎁🎉ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>🎁 이틀에 걸려 촬영한 팬미팅 선물 개봉기..😍ㅣ냔지 언박싱ㅣnyanji unboxing</t>
-  </si>
-  <si>
-    <t>언박싱하고 같이 빨래해요 👚ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>💜남자친구 생일 기념 레터링 케이크를 직접 만들어 보았어요 🎂✨ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>☁️맛있는 음식 천국 블라디 🇷🇺ㅣ러시아 여행 꿀팁 꽉꽉 담은 브이로그ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>☁️ 단짝친구 집에서 3일 살이 👭💖ㅣ 냔지 브이로그 VLOG 🌈</t>
-  </si>
-  <si>
-    <t>🎀 사랑하는 냠냠이분들과의 두번째 팬밋업 👭🎈💖ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>🌙냔지일기#7ㅣ팬미팅 춤연습 그리고 염색😖ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>🌼영주언니 만나는 날! 같이 준비해요 💛🧡ㅣ수다가득 GRWM (tmi 팬미팅 이야기)ㅣ냔지</t>
-  </si>
-  <si>
-    <t>⛺️ 난지 캠핑장에 간 냔지.. 푸하핫^^,,ㅣ오랜만에 모인 냔쥰진 캠핑 VLOG 🌿ㅣ브이로그</t>
-  </si>
-  <si>
-    <t>💟블링블링 체육대회 / 학교축제 메이크업 💟ㅣ냔지 make up</t>
-  </si>
-  <si>
-    <t>🌙냔지일기#6 미세먼지 가득한 날💨ㅣ요즘같은 날 자주 쓰는 꿀템 !ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>(eng)🌟Q&amp;A🌟ㅣ남자친구 밝히지 않는 이유ㅣ수익?ㅣ대학 안 간 거 후회 안 하시나요?ㅣ냔지 nyanji 🌈✨</t>
-  </si>
-  <si>
-    <t>🍞🥐코토리베이지 입힌 후 첫 GRWM 💛🧡ㅣ같이 준비해요ㅣ냔지 nyanji</t>
-  </si>
-  <si>
-    <t>💇🏻‍♀️스무살 인생 첫 탈색.. 너무 떨려! 🤭❤️ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>6년지기 친구랑 호캉스 즐기기🍹✨ㅣ그리고 벚꽃-🌸ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>[만우절 맞이] 고등학생이 된 냔지씨..😯⁉️ㅣ오늘은 조금 특별한 브이로그ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>JPsub)🌸오사카에서만 50만원 지른 인간..(˘⌣˘*)❤︎ㅣ냔지 기념품 하울 🛍💖</t>
-  </si>
-  <si>
-    <t>JPsub)🇯🇵✈️스무살 맞이 친구들과 떠난 오사카 우정여행💖ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>냔지쓰의 지극히 평범한 24시간(?) 브이로그👀ㅣ소울메이트의 인천방문..★ㅣBT21 시즌2도 죽여주는 구나🤭❤️ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>냔지일기5🌙"언니 요즘 뭐하고 지내요?"ㅣ근황 #면허필기시험 #폭풍성장한 아이 #거대한 택배 #나이트케어🧖🏻‍♀️💧</t>
-  </si>
-  <si>
-    <t>🇭🇺🇦🇹열아홉, 나홀로 유럽여행 마지막편ㅣ🎄유럽에서 보내는 크리스마스라니❤️ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>🇨🇿열아홉, 나홀로 유럽여행3ㅣ그동안 고마웠어, 프라하 :-)ㅣ새로운 나라로 떠나는 날 ✈️ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>핑크빛으로 물든 봄맞이 새내기 벚꽃 메이크업🌸ㅣ냔지 메이크업 make up</t>
-  </si>
-  <si>
-    <t>#냔또술,,🍻 장기자랑까지 깔쌈하게- 속초 브이로그 🎶ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>🍓동생들과 우당탕탕 탕후루 만들기 🍓ㅣ이번엔 제발 성공,,🙏🏻ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>🧸1월 한동안 잘 보내셨나요? 근황토크 겸 요즘하는 데일리 메이크업 ˃̵͈̑ ᴗ ˂̵͈̑ ❤︎ㅣ냔지 make up 💄</t>
-  </si>
-  <si>
-    <t>🇨🇿열아홉, 나홀로 유럽여행2ㅣ한인민박에서 만난 친구들👫ㅣ13일간의 무계획 유럽여행🏃🏻‍♀️ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>동생들과 첫 1박2일 대천 여행 🚂🌼ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
-    <t>💎루디 엔터테이먼트 1박2일 네트워킹 VLOG 🌊ㅣ학생 크리에이터 모임ㅣfeat.예보링, 유정, 예슬, 현진, 쥰나, 채경, 은소, 윤졔 🥰❤️ㅣ냔지 브이로그</t>
-  </si>
-  <si>
-    <t>ENG) 열아홉, 나홀로 유럽여행1✈️ㅣ러시아 오빠 고마워요😭 Большое спасибо, брат!ㅣ셀프 졸업선물ㅣ냔지 VLOG 브이로그</t>
-  </si>
-  <si>
-    <t>🍒겨울방학 맞이 데일리 메이크업🍒ㅣ학생 메이크업ㅣ인스타 라이브 메이크업ㅣ바슈롬 레이셀 렌즈 👀</t>
-  </si>
-  <si>
-    <t>🇨🇿열아홉, 나홀로 유럽여행 가기 전 날 같이 준비해요! GRWM💄❤️ㅣ냔지 get ready with me make up</t>
-  </si>
-  <si>
-    <t>마지막 학생 메이크업 해봤긔,,⭐️💧ㅣ댓글 다 이 말투로 달아야하긔.. 협박이긔..^^*ㅋㅣ 냔지 make up</t>
-  </si>
-  <si>
-    <t>남자친구 만나러 가기 전 같이 준비해요 💑ㅣ냔지 GRWM 💄get ready with me 💅🏻✨</t>
-  </si>
-  <si>
-    <t>☁️ 열아홉, 나홀로 유럽여행 캐리어 같이 싸요 ! 🇨🇿🇦🇹🇭🇺ㅣ셀프 졸업선물🎁ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>ENG)🍻00년생 스무살됐어요~‼️ㅣ1월 1일 음주 브이로그🍺ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>루디엔터테이먼트 두번째 네트워킹 브이로그 💎ㅣnyanji 냔지 브이로그</t>
-  </si>
-  <si>
-    <t>🔥수능 끝난 고3들의 정줄놓 브이로그🙄ㅣ다이소 콧수염 하나로 줸틀맨 OK🧔🏻ㅣnyanji 냔지 VLOG</t>
-  </si>
-  <si>
-    <t>동성로 갔다가 지름신이 폭발해버렸다,,💸ㅣ쇼핑하울🛍ㅣ대구 다녀왔어요오🙋🏻‍♀️💓ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>🍑새로운 복숭아 이불 깔고 팬미팅 춤 연습하는 뽀짝쓰 브이로그 💃🏻🕺🏻ㅣ제니님 죄송해요..😭ㅣ냔지 VLOG</t>
-  </si>
-  <si>
-    <t>TMI주의🍅) 홍시 한 입 베어문듯한 메이크업ㅣ겟레디윗미 GRWMㅣ오렌지브라운 무드 메이크업ㅣnyanji 냔지</t>
-  </si>
-  <si>
-    <t>💝냔지일기#4🌙ㅣ소속사 가는 날ㅣ감성 터지는 에코마이크 노래방ㅣㄹㅇ광고 1도 없는 나이트 클렌징/스킨케어 루틴🧖🏻‍♀️ㅣ냔지 브이로그 VLOG</t>
-  </si>
-  <si>
     <t>21:39</t>
   </si>
   <si>
@@ -365,6 +203,14 @@
   </si>
   <si>
     <t>15:54</t>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -426,13 +272,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -773,15 +633,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,16 +670,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
       <c r="D2">
         <v>223014</v>
@@ -830,18 +697,21 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
       <c r="D3">
         <v>132119</v>
@@ -856,18 +726,21 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
       </c>
       <c r="D4">
         <v>224154</v>
@@ -882,18 +755,21 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
       </c>
       <c r="D5">
         <v>322359</v>
@@ -908,18 +784,21 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
       </c>
       <c r="D6">
         <v>70776</v>
@@ -934,18 +813,21 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
       <c r="D7">
         <v>90685</v>
@@ -960,18 +842,21 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8">
         <v>170602</v>
@@ -986,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
       </c>
       <c r="D9">
         <v>105923</v>
@@ -1012,18 +900,21 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
         <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
       </c>
       <c r="D10">
         <v>106877</v>
@@ -1038,18 +929,21 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
       <c r="D11">
         <v>169907</v>
@@ -1064,18 +958,21 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
       <c r="D12">
         <v>155699</v>
@@ -1090,18 +987,21 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13">
         <v>338845</v>
@@ -1116,18 +1016,21 @@
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
         <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
       <c r="D14">
         <v>160115</v>
@@ -1142,18 +1045,21 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
         <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
       </c>
       <c r="D15">
         <v>118669</v>
@@ -1168,18 +1074,21 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
       </c>
       <c r="D16">
         <v>595689</v>
@@ -1194,18 +1103,21 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
       <c r="D17">
         <v>188438</v>
@@ -1220,18 +1132,21 @@
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
       </c>
       <c r="D18">
         <v>329658</v>
@@ -1246,18 +1161,21 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
       </c>
       <c r="D19">
         <v>439561</v>
@@ -1272,18 +1190,21 @@
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
       </c>
       <c r="D20">
         <v>356512</v>
@@ -1298,18 +1219,21 @@
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
       </c>
       <c r="D21">
         <v>192285</v>
@@ -1324,18 +1248,21 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
       </c>
       <c r="D22">
         <v>114632</v>
@@ -1350,18 +1277,21 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
       </c>
       <c r="D23">
         <v>198889</v>
@@ -1376,18 +1306,21 @@
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
       <c r="D24">
         <v>186532</v>
@@ -1402,18 +1335,21 @@
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
       </c>
       <c r="D25">
         <v>309503</v>
@@ -1428,18 +1364,21 @@
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
       </c>
       <c r="D26">
         <v>176993</v>
@@ -1454,18 +1393,21 @@
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
       </c>
       <c r="D27">
         <v>313250</v>
@@ -1480,18 +1422,21 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
       </c>
       <c r="D28">
         <v>176395</v>
@@ -1506,18 +1451,21 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
       </c>
       <c r="D29">
         <v>223439</v>
@@ -1532,18 +1480,21 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
       </c>
       <c r="D30">
         <v>291817</v>
@@ -1558,18 +1509,21 @@
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
       <c r="D31">
         <v>434815</v>
@@ -1584,18 +1538,21 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
       </c>
       <c r="D32">
         <v>151075</v>
@@ -1610,18 +1567,21 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
       </c>
       <c r="D33">
         <v>162585</v>
@@ -1636,18 +1596,21 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
         <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
       </c>
       <c r="D34">
         <v>165786</v>
@@ -1662,18 +1625,21 @@
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
         <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
       </c>
       <c r="D35">
         <v>273408</v>
@@ -1688,18 +1654,21 @@
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
       </c>
       <c r="D36">
         <v>127373</v>
@@ -1714,18 +1683,21 @@
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
+      <c r="B37">
         <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
       </c>
       <c r="D37">
         <v>414277</v>
@@ -1740,18 +1712,21 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
       </c>
       <c r="D38">
         <v>218540</v>
@@ -1766,18 +1741,21 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
       </c>
       <c r="D39">
         <v>197088</v>
@@ -1792,18 +1770,21 @@
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
+      <c r="B40">
         <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
       </c>
       <c r="D40">
         <v>668974</v>
@@ -1818,18 +1799,21 @@
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
+      <c r="B41">
         <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
       </c>
       <c r="D41">
         <v>343608</v>
@@ -1844,18 +1828,21 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I41">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
+      <c r="B42">
         <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
       </c>
       <c r="D42">
         <v>198152</v>
@@ -1870,18 +1857,21 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I42">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
+      <c r="B43">
         <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
       </c>
       <c r="D43">
         <v>941590</v>
@@ -1896,18 +1886,21 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I43">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.5</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
       </c>
       <c r="D44">
         <v>213870</v>
@@ -1922,18 +1915,21 @@
         <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
+      <c r="B45">
         <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
       </c>
       <c r="D45">
         <v>206918</v>
@@ -1948,18 +1944,21 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I45">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
       </c>
       <c r="D46">
         <v>323484</v>
@@ -1974,18 +1973,21 @@
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
       </c>
       <c r="D47">
         <v>210055</v>
@@ -2000,18 +2002,21 @@
         <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I47">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
+      <c r="B48">
         <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
       </c>
       <c r="D48">
         <v>499836</v>
@@ -2026,18 +2031,21 @@
         <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
       </c>
       <c r="D49">
         <v>1728001</v>
@@ -2052,18 +2060,21 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
       </c>
       <c r="D50">
         <v>113972</v>
@@ -2078,18 +2089,21 @@
         <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I50">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
       </c>
       <c r="D51">
         <v>289779</v>
@@ -2104,18 +2118,21 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I51">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
       </c>
       <c r="D52">
         <v>196190</v>
@@ -2130,18 +2147,21 @@
         <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
       </c>
       <c r="D53">
         <v>248523</v>
@@ -2156,18 +2176,21 @@
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I53">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
       </c>
       <c r="D54">
         <v>130261</v>
@@ -2182,18 +2205,21 @@
         <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I54">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
       </c>
       <c r="D55">
         <v>245887</v>
@@ -2208,7 +2234,10 @@
         <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>320000</v>
       </c>
     </row>
   </sheetData>
